--- a/Data/death_cases.xlsx
+++ b/Data/death_cases.xlsx
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="433">
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="434">
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="E468">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="469">
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="E480">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="481">
@@ -9031,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="E484">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="485">
@@ -17688,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="E978">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="979">
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="E979">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="980">
@@ -17840,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="E986">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="987">
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
       <c r="E1235">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="1236">
@@ -25975,7 +25975,7 @@
         <v>0</v>
       </c>
       <c r="E1438">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="1439">
